--- a/tabular/erv/erv-curated-side-data.xlsx
+++ b/tabular/erv/erv-curated-side-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8EB1D9-1CDD-4F49-9E5A-F78407304ED1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6B2D4-6ACD-A241-AC11-2F750FA8F3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
   </bookViews>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27A048-80C5-F84C-A42A-BAF0C66D1548}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/erv/erv-curated-side-data.xlsx
+++ b/tabular/erv/erv-curated-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E6B2D4-6ACD-A241-AC11-2F750FA8F3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC3DC60-022D-634E-9A1D-9D76A238B01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
+    <workbookView xWindow="22300" yWindow="4840" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,9 +432,6 @@
     <t>MELV</t>
   </si>
   <si>
-    <t>species</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -499,6 +496,9 @@
   </si>
   <si>
     <t>Cynocephalus volans</t>
+  </si>
+  <si>
+    <t>organism</t>
   </si>
 </sst>
 </file>
@@ -868,7 +868,7 @@
   <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,10 +881,10 @@
         <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -892,10 +892,10 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -903,10 +903,10 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
         <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,10 +914,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,10 +925,10 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,10 +936,10 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>
@@ -969,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
         <v>53</v>
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
         <v>53</v>
@@ -991,10 +991,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
         <v>137</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1002,10 +1002,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1013,10 +1013,10 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
         <v>137</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,10 +1035,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,10 +1046,10 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,10 +1057,10 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1068,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1079,10 +1079,10 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1090,10 +1090,10 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,10 +1101,10 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1112,10 +1112,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1123,10 +1123,10 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,10 +1134,10 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,10 +1145,10 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,10 +1156,10 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1178,10 +1178,10 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,10 +1189,10 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1200,7 +1200,7 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" t="s">
         <v>53</v>
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
         <v>53</v>
@@ -1222,7 +1222,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -1233,7 +1233,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>53</v>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" t="s">
         <v>53</v>
@@ -1255,7 +1255,7 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
         <v>53</v>
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
         <v>53</v>
@@ -1277,7 +1277,7 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" t="s">
         <v>53</v>
@@ -1288,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -1299,7 +1299,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -1310,7 +1310,7 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -1321,7 +1321,7 @@
         <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -1332,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C42" t="s">
         <v>53</v>
@@ -1343,10 +1343,10 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,10 +1354,10 @@
         <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1365,7 +1365,7 @@
         <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C45" t="s">
         <v>131</v>
@@ -1376,7 +1376,7 @@
         <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
         <v>131</v>
@@ -1387,7 +1387,7 @@
         <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
         <v>131</v>
@@ -1398,7 +1398,7 @@
         <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>131</v>
@@ -1409,7 +1409,7 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
         <v>131</v>
@@ -1420,7 +1420,7 @@
         <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" t="s">
         <v>131</v>
@@ -1431,7 +1431,7 @@
         <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
         <v>131</v>
@@ -1442,7 +1442,7 @@
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
         <v>131</v>
@@ -1453,7 +1453,7 @@
         <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
         <v>131</v>
@@ -1464,7 +1464,7 @@
         <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" t="s">
         <v>131</v>
@@ -1475,7 +1475,7 @@
         <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" t="s">
         <v>131</v>
@@ -1486,7 +1486,7 @@
         <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
         <v>131</v>
@@ -1497,7 +1497,7 @@
         <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
@@ -1508,7 +1508,7 @@
         <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
         <v>131</v>
@@ -1519,7 +1519,7 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C59" t="s">
         <v>131</v>
@@ -1530,7 +1530,7 @@
         <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" t="s">
         <v>131</v>
@@ -1541,7 +1541,7 @@
         <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
         <v>131</v>
@@ -1552,7 +1552,7 @@
         <v>71</v>
       </c>
       <c r="B62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
         <v>131</v>
@@ -1563,7 +1563,7 @@
         <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" t="s">
         <v>131</v>
@@ -1574,7 +1574,7 @@
         <v>73</v>
       </c>
       <c r="B64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C64" t="s">
         <v>131</v>
@@ -1585,7 +1585,7 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
         <v>131</v>
@@ -1596,7 +1596,7 @@
         <v>75</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
         <v>131</v>
@@ -1607,7 +1607,7 @@
         <v>76</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" t="s">
         <v>131</v>
@@ -1618,7 +1618,7 @@
         <v>77</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
         <v>131</v>
@@ -1629,7 +1629,7 @@
         <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
         <v>131</v>
@@ -1640,7 +1640,7 @@
         <v>79</v>
       </c>
       <c r="B70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" t="s">
         <v>131</v>
@@ -1651,7 +1651,7 @@
         <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s">
         <v>131</v>
@@ -1662,7 +1662,7 @@
         <v>81</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
         <v>131</v>
@@ -1673,7 +1673,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" t="s">
         <v>131</v>
@@ -1684,7 +1684,7 @@
         <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>131</v>
@@ -1695,7 +1695,7 @@
         <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
         <v>131</v>
@@ -1706,7 +1706,7 @@
         <v>85</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C76" t="s">
         <v>131</v>
@@ -1717,7 +1717,7 @@
         <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>131</v>
@@ -1728,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
         <v>131</v>
@@ -1739,7 +1739,7 @@
         <v>88</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
         <v>131</v>
@@ -1750,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C80" t="s">
         <v>131</v>
@@ -1761,7 +1761,7 @@
         <v>90</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" t="s">
         <v>131</v>
@@ -1772,7 +1772,7 @@
         <v>91</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>131</v>
@@ -1783,7 +1783,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" t="s">
         <v>131</v>
@@ -1794,7 +1794,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
@@ -1805,7 +1805,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
         <v>131</v>
@@ -1816,7 +1816,7 @@
         <v>95</v>
       </c>
       <c r="B86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C86" t="s">
         <v>131</v>
@@ -1827,7 +1827,7 @@
         <v>96</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C87" t="s">
         <v>131</v>
@@ -1838,7 +1838,7 @@
         <v>97</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C88" t="s">
         <v>131</v>
@@ -1849,7 +1849,7 @@
         <v>98</v>
       </c>
       <c r="B89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>131</v>
@@ -1860,7 +1860,7 @@
         <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
@@ -1871,7 +1871,7 @@
         <v>100</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
         <v>131</v>
@@ -1882,7 +1882,7 @@
         <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>131</v>
@@ -1893,7 +1893,7 @@
         <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>131</v>
@@ -1904,7 +1904,7 @@
         <v>103</v>
       </c>
       <c r="B94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C94" t="s">
         <v>131</v>
@@ -1915,7 +1915,7 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
         <v>131</v>
@@ -1926,7 +1926,7 @@
         <v>105</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C96" t="s">
         <v>131</v>
@@ -1937,7 +1937,7 @@
         <v>106</v>
       </c>
       <c r="B97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C97" t="s">
         <v>131</v>
@@ -1948,7 +1948,7 @@
         <v>107</v>
       </c>
       <c r="B98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
         <v>131</v>
@@ -1959,7 +1959,7 @@
         <v>108</v>
       </c>
       <c r="B99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C99" t="s">
         <v>131</v>
@@ -1970,7 +1970,7 @@
         <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C100" t="s">
         <v>131</v>
@@ -1981,7 +1981,7 @@
         <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
         <v>131</v>
@@ -1992,7 +1992,7 @@
         <v>111</v>
       </c>
       <c r="B102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
         <v>131</v>
@@ -2003,7 +2003,7 @@
         <v>112</v>
       </c>
       <c r="B103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
         <v>131</v>
@@ -2014,7 +2014,7 @@
         <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C104" t="s">
         <v>131</v>
@@ -2025,7 +2025,7 @@
         <v>114</v>
       </c>
       <c r="B105" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C105" t="s">
         <v>131</v>
@@ -2036,7 +2036,7 @@
         <v>115</v>
       </c>
       <c r="B106" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" t="s">
         <v>131</v>
@@ -2047,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
         <v>131</v>
@@ -2058,7 +2058,7 @@
         <v>117</v>
       </c>
       <c r="B108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" t="s">
         <v>131</v>
@@ -2069,7 +2069,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" t="s">
         <v>131</v>
@@ -2080,7 +2080,7 @@
         <v>119</v>
       </c>
       <c r="B110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C110" t="s">
         <v>131</v>
@@ -2091,7 +2091,7 @@
         <v>120</v>
       </c>
       <c r="B111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
         <v>131</v>
@@ -2102,7 +2102,7 @@
         <v>121</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C112" t="s">
         <v>131</v>
@@ -2113,7 +2113,7 @@
         <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C113" t="s">
         <v>131</v>
@@ -2124,7 +2124,7 @@
         <v>123</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C114" t="s">
         <v>131</v>
@@ -2135,7 +2135,7 @@
         <v>124</v>
       </c>
       <c r="B115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C115" t="s">
         <v>131</v>
@@ -2146,7 +2146,7 @@
         <v>125</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C116" t="s">
         <v>131</v>
@@ -2157,7 +2157,7 @@
         <v>126</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C117" t="s">
         <v>131</v>
@@ -2168,7 +2168,7 @@
         <v>127</v>
       </c>
       <c r="B118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
         <v>131</v>
@@ -2179,7 +2179,7 @@
         <v>128</v>
       </c>
       <c r="B119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C119" t="s">
         <v>131</v>
@@ -2190,7 +2190,7 @@
         <v>129</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C120" t="s">
         <v>131</v>
@@ -2201,7 +2201,7 @@
         <v>130</v>
       </c>
       <c r="B121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C121" t="s">
         <v>131</v>
@@ -2212,10 +2212,10 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" t="s">
         <v>152</v>
-      </c>
-      <c r="C122" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2223,10 +2223,10 @@
         <v>44</v>
       </c>
       <c r="B123" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" t="s">
         <v>152</v>
-      </c>
-      <c r="C123" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2234,10 +2234,10 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -2245,10 +2245,10 @@
         <v>46</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -2256,10 +2256,10 @@
         <v>47</v>
       </c>
       <c r="B126" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" t="s">
         <v>152</v>
-      </c>
-      <c r="C126" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -2267,10 +2267,10 @@
         <v>48</v>
       </c>
       <c r="B127" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" t="s">
         <v>152</v>
-      </c>
-      <c r="C127" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -2278,10 +2278,10 @@
         <v>49</v>
       </c>
       <c r="B128" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2289,10 +2289,10 @@
         <v>50</v>
       </c>
       <c r="B129" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2300,10 @@
         <v>51</v>
       </c>
       <c r="B130" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" t="s">
         <v>152</v>
-      </c>
-      <c r="C130" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-curated-side-data.xlsx
+++ b/tabular/erv/erv-curated-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21012CE-3D47-994A-BEFF-A3F583E72A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EB68F-899E-6248-8272-182B2AD36F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22300" yWindow="4840" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
+    <workbookView xWindow="17140" yWindow="5760" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="erv-loci" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="168">
   <si>
     <t>FJ707322</t>
   </si>
@@ -145,9 +145,6 @@
     <t>FJ707357</t>
   </si>
   <si>
-    <t>FJ707358</t>
-  </si>
-  <si>
     <t>FJ707359</t>
   </si>
   <si>
@@ -512,6 +509,36 @@
   </si>
   <si>
     <t>sequence_length</t>
+  </si>
+  <si>
+    <t>locus_structure</t>
+  </si>
+  <si>
+    <t>Gag</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>Pol</t>
+  </si>
+  <si>
+    <t>env-rev</t>
+  </si>
+  <si>
+    <t>Pol-Vif-Env</t>
+  </si>
+  <si>
+    <t>Gag-Pol</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>NK</t>
   </si>
 </sst>
 </file>
@@ -567,9 +594,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,2067 +917,2764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27A048-80C5-F84C-A42A-BAF0C66D1548}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G119" sqref="A1:G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>134</v>
-      </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E2">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3210</v>
+      </c>
+      <c r="F2" s="3">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E3">
-        <v>2881</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2879</v>
+      </c>
+      <c r="F3" s="3">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E4">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2879</v>
+      </c>
+      <c r="F4" s="3">
+        <v>128</v>
+      </c>
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E5">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2873</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6">
+        <v>2784</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E7">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1128</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="E8">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1118</v>
+      </c>
+      <c r="F8" s="3">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9">
+        <v>1067</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10">
+        <v>605</v>
+      </c>
+      <c r="F10" s="3">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E11">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E13">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>902</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E15">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>901</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>883</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E17">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E19">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E20">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E21">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E22">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E23">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E24">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E25">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E26">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E27">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E28">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E29">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E30">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E31">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E32">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E33">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E34">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E35">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E36">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E37">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E38">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E39">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E40">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E41">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="E42">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E43">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E44">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>880</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45">
         <v>880</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46">
         <v>880</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E47">
         <v>880</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48">
+        <v>880</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49">
+        <v>880</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50">
+        <v>879</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48">
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
         <v>879</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D50" t="s">
-        <v>131</v>
-      </c>
-      <c r="E50">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s">
         <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>879</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E55">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>878</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
         <v>145</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>877</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E57">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>875</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E58">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E59">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E60">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
         <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E62">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
         <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E63">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>873</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64">
+        <v>873</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>147</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65">
+        <v>873</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66">
+        <v>873</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67">
+        <v>860</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68">
+        <v>860</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69">
+        <v>837</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" t="s">
-        <v>146</v>
-      </c>
-      <c r="D64" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" t="s">
-        <v>146</v>
-      </c>
-      <c r="D65" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>85</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" t="s">
-        <v>146</v>
-      </c>
-      <c r="D66" t="s">
-        <v>131</v>
-      </c>
-      <c r="E66">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
-      <c r="D67" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" t="s">
-        <v>146</v>
-      </c>
-      <c r="D68" t="s">
-        <v>131</v>
-      </c>
-      <c r="E68">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" t="s">
-        <v>146</v>
-      </c>
-      <c r="D69" t="s">
-        <v>131</v>
-      </c>
-      <c r="E69">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>89</v>
-      </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E70">
         <v>837</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E71">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E72">
         <v>837</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G72" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E73">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E74">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
         <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E75">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
         <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E76">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
         <v>147</v>
       </c>
       <c r="D77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E77">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D78" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E78">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2165</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E79">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E80">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E81">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E82">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E83">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D84" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E84">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D85" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E85">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D86" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E86">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C87" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E87">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E88">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C89" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E89">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E90">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G90" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E91">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G91" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E92">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G92" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E93">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E94">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G94" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E95">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D96" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E96">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D97" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E97">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D98" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E98">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1437</v>
+      </c>
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="B99" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D99" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E99">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1437</v>
+      </c>
+      <c r="F99" s="3">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D100" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E100">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1380</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E101">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1287</v>
+      </c>
+      <c r="F101" s="3">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C102" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E102">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1286</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E103">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1260</v>
+      </c>
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C104" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D104" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E104">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+      <c r="F104" s="3">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E105">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1068</v>
+      </c>
+      <c r="F105" s="3">
+        <v>1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E106">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1024</v>
+      </c>
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D107" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E107">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1024</v>
+      </c>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E108">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>730</v>
+      </c>
+      <c r="F108" s="3">
+        <v>1</v>
+      </c>
+      <c r="G108" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D109" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E109">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>729</v>
+      </c>
+      <c r="F109" s="3">
+        <v>1</v>
+      </c>
+      <c r="G109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="B110" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E110">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>130</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="D111" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="E111">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G111" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="B112" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D112" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="E112">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G112" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="E113">
-        <v>2873</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G113" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="B114" t="s">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D114" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="E114">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C115" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D115" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E115">
-        <v>2879</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2881</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E116">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2019</v>
+      </c>
+      <c r="F116" s="3">
+        <v>72</v>
+      </c>
+      <c r="G116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B117" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C117" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D117" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E117">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>787</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D118" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E118">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>681</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D119" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E119">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>51</v>
-      </c>
-      <c r="B120" t="s">
-        <v>155</v>
-      </c>
-      <c r="C120" t="s">
-        <v>151</v>
-      </c>
-      <c r="D120" t="s">
-        <v>152</v>
-      </c>
-      <c r="E120">
-        <v>605</v>
+        <v>397</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G119" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
-    <sortCondition ref="A2:A120"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G119">
+    <sortCondition ref="B2:B119"/>
+    <sortCondition descending="1" ref="E2:E119"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -2960,112 +3690,112 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-curated-side-data.xlsx
+++ b/tabular/erv/erv-curated-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612EB68F-899E-6248-8272-182B2AD36F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2B16A-5970-2A4D-9D18-C0D2D2E2F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17140" yWindow="5760" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="168">
   <si>
     <t>FJ707322</t>
   </si>
@@ -917,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC27A048-80C5-F84C-A42A-BAF0C66D1548}">
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G119" sqref="A1:G119"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3665,6 +3665,206 @@
       </c>
       <c r="G119" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" t="s">
+        <v>130</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>130</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>55</v>
+      </c>
+      <c r="B122" t="s">
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" t="s">
+        <v>130</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" t="s">
+        <v>130</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>57</v>
+      </c>
+      <c r="B124" t="s">
+        <v>130</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+      <c r="D124" t="s">
+        <v>130</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" t="s">
+        <v>142</v>
+      </c>
+      <c r="D125" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" t="s">
+        <v>142</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G126" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>60</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127" t="s">
+        <v>142</v>
+      </c>
+      <c r="D127" t="s">
+        <v>130</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" t="s">
+        <v>142</v>
+      </c>
+      <c r="D128" t="s">
+        <v>130</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D129" t="s">
+        <v>130</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G129" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3883,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD10"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/erv/erv-curated-side-data.xlsx
+++ b/tabular/erv/erv-curated-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C2B16A-5970-2A4D-9D18-C0D2D2E2F961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09305988-A7E6-9A48-9646-E0808BCE9117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17140" yWindow="5760" windowWidth="27240" windowHeight="16440" xr2:uid="{5FE1C2E0-EA86-3840-B2CC-A8C1F65F9AD7}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:G129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+      <selection activeCell="G123" sqref="A1:G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3680,6 +3680,9 @@
       <c r="D120" t="s">
         <v>130</v>
       </c>
+      <c r="E120">
+        <v>10000</v>
+      </c>
       <c r="F120" s="3" t="s">
         <v>167</v>
       </c>
@@ -3700,6 +3703,9 @@
       <c r="D121" t="s">
         <v>130</v>
       </c>
+      <c r="E121">
+        <v>10000</v>
+      </c>
       <c r="F121" s="3" t="s">
         <v>167</v>
       </c>
@@ -3720,6 +3726,9 @@
       <c r="D122" t="s">
         <v>130</v>
       </c>
+      <c r="E122">
+        <v>10000</v>
+      </c>
       <c r="F122" s="3" t="s">
         <v>167</v>
       </c>
@@ -3740,6 +3749,9 @@
       <c r="D123" t="s">
         <v>130</v>
       </c>
+      <c r="E123">
+        <v>10000</v>
+      </c>
       <c r="F123" s="3" t="s">
         <v>167</v>
       </c>
@@ -3760,6 +3772,9 @@
       <c r="D124" t="s">
         <v>130</v>
       </c>
+      <c r="E124">
+        <v>10000</v>
+      </c>
       <c r="F124" s="3" t="s">
         <v>167</v>
       </c>
@@ -3780,6 +3795,9 @@
       <c r="D125" t="s">
         <v>130</v>
       </c>
+      <c r="E125">
+        <v>10000</v>
+      </c>
       <c r="F125" s="3" t="s">
         <v>167</v>
       </c>
@@ -3800,6 +3818,9 @@
       <c r="D126" t="s">
         <v>130</v>
       </c>
+      <c r="E126">
+        <v>10000</v>
+      </c>
       <c r="F126" s="3" t="s">
         <v>167</v>
       </c>
@@ -3820,6 +3841,9 @@
       <c r="D127" t="s">
         <v>130</v>
       </c>
+      <c r="E127">
+        <v>10000</v>
+      </c>
       <c r="F127" s="3" t="s">
         <v>167</v>
       </c>
@@ -3840,6 +3864,9 @@
       <c r="D128" t="s">
         <v>130</v>
       </c>
+      <c r="E128">
+        <v>10000</v>
+      </c>
       <c r="F128" s="3" t="s">
         <v>167</v>
       </c>
@@ -3859,6 +3886,9 @@
       </c>
       <c r="D129" t="s">
         <v>130</v>
+      </c>
+      <c r="E129">
+        <v>10000</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>167</v>
